--- a/src/main/resources/data/Report.xlsx
+++ b/src/main/resources/data/Report.xlsx
@@ -15,7 +15,7 @@
     <sheet name="report-sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'report-sheet'!$A$1:$A$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'report-sheet'!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Sold (as) X 11</t>
+  </si>
+  <si>
+    <t>Bought (Third Party PD - 1) X 1</t>
   </si>
 </sst>
 </file>
@@ -92,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,8 +409,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44864.147488425922</v>
+      <c r="A2" s="8">
+        <v>44865.147488425922</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -416,73 +420,106 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
+        <v>44858.147488425922</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44857.147488425922</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>44834.147303240738</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>44805.146689814814</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>-150</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>44835.146099537036</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>44562.144895833335</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>44561.144988425927</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>44407.144861111112</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>44864.623365555555</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>-12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A8"/>
+  <autoFilter ref="A1:A10"/>
   <sortState ref="A2:C8">
     <sortCondition descending="1" ref="A1"/>
   </sortState>

--- a/src/main/resources/data/Report.xlsx
+++ b/src/main/resources/data/Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joebr\IdeaProjects\shop-expense-tracker\src\main\resources\data\"/>
     </mc:Choice>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="report-sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="bill-names" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'report-sheet'!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -60,12 +61,40 @@
   </si>
   <si>
     <t>Bought (Third Party PD - 1) X 1</t>
+  </si>
+  <si>
+    <t>Bill Names</t>
+  </si>
+  <si>
+    <t>Electricity Bill</t>
+  </si>
+  <si>
+    <t>Water Bill</t>
+  </si>
+  <si>
+    <t>Decoration Fee</t>
+  </si>
+  <si>
+    <t>Food cost</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Bought (feemicon pill) X 10000</t>
+  </si>
+  <si>
+    <t>Bought (Third Party PD - 1) X 3</t>
+  </si>
+  <si>
+    <t>Sold (feemicon pill) X 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -105,6 +134,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,26 +419,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875"/>
+    <col min="2" max="2" customWidth="true" width="25.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -412,10 +446,10 @@
       <c r="A2" s="8">
         <v>44865.147488425922</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>148.5</v>
       </c>
     </row>
@@ -423,10 +457,10 @@
       <c r="A3" s="8">
         <v>44858.147488425922</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>148.5</v>
       </c>
     </row>
@@ -434,10 +468,10 @@
       <c r="A4" s="1">
         <v>44857.147488425922</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>148.5</v>
       </c>
     </row>
@@ -445,10 +479,10 @@
       <c r="A5" s="2">
         <v>44834.147303240738</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>162</v>
       </c>
     </row>
@@ -456,10 +490,10 @@
       <c r="A6" s="3">
         <v>44805.146689814814</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>-150</v>
       </c>
     </row>
@@ -467,10 +501,10 @@
       <c r="A7" s="4">
         <v>44835.146099537036</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>13</v>
       </c>
     </row>
@@ -478,10 +512,10 @@
       <c r="A8" s="5">
         <v>44562.144895833335</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>276</v>
       </c>
     </row>
@@ -489,10 +523,10 @@
       <c r="A9" s="6">
         <v>44561.144988425927</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>299</v>
       </c>
     </row>
@@ -500,10 +534,10 @@
       <c r="A10" s="7">
         <v>44407.144861111112</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>24</v>
       </c>
     </row>
@@ -511,11 +545,66 @@
       <c r="A11" s="8">
         <v>44864.623365555555</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>-12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n">
+        <v>44864.74380736111</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>-122.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="n">
+        <v>44864.76265318287</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>-600000.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="n">
+        <v>44864.763558645835</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>-36.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="n">
+        <v>44864.764227037034</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="n">
+        <v>44864.76562412037</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>696.9</v>
       </c>
     </row>
   </sheetData>
@@ -525,4 +614,52 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/data/Report.xlsx
+++ b/src/main/resources/data/Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="report-sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -81,13 +81,46 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Bought (feemicon pill) X 10000</t>
-  </si>
-  <si>
     <t>Bought (Third Party PD - 1) X 3</t>
   </si>
   <si>
     <t>Sold (feemicon pill) X 10</t>
+  </si>
+  <si>
+    <t>Sold (PD Name 4) X 10</t>
+  </si>
+  <si>
+    <t>Sold (PD Name 1) X 20</t>
+  </si>
+  <si>
+    <t>Sold (PD Name 2) X 12</t>
+  </si>
+  <si>
+    <t>Sold (PD Name 4) X 1</t>
+  </si>
+  <si>
+    <t>Sold (PD Name 1) X 12</t>
+  </si>
+  <si>
+    <t>Sold (PD Name 2) X 1</t>
+  </si>
+  <si>
+    <t>Sold (PD Name 7) X 12</t>
+  </si>
+  <si>
+    <t>Bought (Third Party PD - 3) X 6</t>
+  </si>
+  <si>
+    <t>Bought (Third Party PD - 1) X 10</t>
+  </si>
+  <si>
+    <t>Bought (Third Party PD - 2) X 15</t>
+  </si>
+  <si>
+    <t>Bought (Third Party PD - 5) X 13</t>
+  </si>
+  <si>
+    <t>Bought (Third Party PD - 1) X 40</t>
   </si>
 </sst>
 </file>
@@ -124,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -134,6 +167,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -419,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,59 +597,191 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="n">
-        <v>44864.74380736111</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>44864.743807361112</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C12" t="n" s="0">
-        <v>-122.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="n">
-        <v>44864.76265318287</v>
+      <c r="C12" s="0">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>44864.763558645835</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C13" t="n" s="0">
-        <v>-600000.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="n">
-        <v>44864.763558645835</v>
+      <c r="C13" s="0">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>44864.764227037034</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>44864.765624120373</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C14" t="n" s="0">
-        <v>-36.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="n">
-        <v>44864.764227037034</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n" s="0">
-        <v>-100.0</v>
+      <c r="C15" s="0">
+        <v>696.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>44864.76562412037</v>
+        <v>44864.9072121412</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>19</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>696.9</v>
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>44864.90856619213</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="n">
+        <v>44864.90928422454</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>156.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="n">
+        <v>44864.91438642361</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="17" t="n">
+        <v>44864.91845265046</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>144.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="18" t="n">
+        <v>44864.918554965276</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="n">
+        <v>44864.918612615744</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>216.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>44864.91877981481</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>144.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="n">
+        <v>44864.92317155092</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>-84.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="22" t="n">
+        <v>44864.92766209491</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>-120.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="23" t="n">
+        <v>44864.92783756944</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>-195.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="n">
+        <v>44864.9279996875</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>-208.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="25" t="n">
+        <v>44864.928822766204</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>-480.0</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
